--- a/Branch Master/Variables_Importance.xlsx
+++ b/Branch Master/Variables_Importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lanaj\Final-Project\Branch Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E7512-248A-4E9B-A707-E0CA2BA3C8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089ECA1-F18F-4608-9D9A-1E0F3A93BAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5506F494-0269-4495-A9B4-5ACEECFAA4FF}"/>
   </bookViews>
@@ -31,75 +31,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>asset_cost</t>
-  </si>
-  <si>
-    <t>disbursed_amount</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>credit_history_length_in_months</t>
-  </si>
-  <si>
-    <t>PERFORM_CNS.SCORE</t>
-  </si>
-  <si>
-    <t>PRI.CURRENT.BALANCE</t>
-  </si>
-  <si>
-    <t>PRI.DISBURSED.AMOUNT</t>
-  </si>
-  <si>
-    <t>PRI.SANCTIONED.AMOUNT</t>
-  </si>
-  <si>
-    <t>PRI.ACTIVE.ACCTS</t>
-  </si>
-  <si>
-    <t>NO.OF_INQUIRIES</t>
-  </si>
-  <si>
-    <t>NEW.ACCTS.IN.LAST.SIX.MONTHS</t>
-  </si>
-  <si>
-    <t>PAN_flag</t>
-  </si>
-  <si>
-    <t>PRI.OVERDUE.ACCTS</t>
-  </si>
-  <si>
-    <t>DELINQUENT.ACCTS.IN.LAST.SIX.MONTHS</t>
-  </si>
-  <si>
-    <t>Aadhar_flag</t>
-  </si>
-  <si>
-    <t>SEC.SANCTIONED.AMOUNT</t>
-  </si>
-  <si>
-    <t>SEC.DISBURSED.AMOUNT</t>
-  </si>
-  <si>
-    <t>SEC.CURRENT.BALANCE</t>
-  </si>
-  <si>
-    <t>SEC.INSTAL.AMT</t>
-  </si>
-  <si>
-    <t>SEC.ACTIVE.ACCTS</t>
-  </si>
-  <si>
-    <t>SEC.OVERDUE.ACCTS]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Variables</t>
   </si>
   <si>
     <t>Importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asset_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disbursed_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credit_history_length_in_months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PERFORM_CNS.SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRI.CURRENT.BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRI.SANCTIONED.AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRI.DISBURSED.AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO.OF_INQUIRIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRI.ACTIVE.ACCTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEW.ACCTS.IN.LAST.SIX.MONTHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRI.OVERDUE.ACCTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAN_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELINQUENT.ACCTS.IN.LAST.SIX.MONTHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employment.Type_Salaried</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employment.Type_Self employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aadhar_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.DISBURSED.AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.SANCTIONED.AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.CURRENT.BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.INSTAL.AMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.ACTIVE.ACCTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEC.OVERDUE.ACCTS]</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCB9D41-F3A2-42BE-A486-7EEE2B4D970D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,178 +480,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>0.29767508829832601</v>
+        <v>0.28886827962552603</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.25910623477960898</v>
+        <v>0.26055083047459499</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.13063815353011701</v>
+        <v>0.12948913099831999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>5.2871462867978399E-2</v>
+        <v>5.2902330642439897E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>4.9557608602900302E-2</v>
+        <v>4.7919249820464097E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>4.6235441657861698E-2</v>
+        <v>4.3662689842102899E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>4.3824767632957201E-2</v>
+        <v>4.2801597959102697E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>4.3320184985067102E-2</v>
+        <v>4.2212978351509299E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1.5904469122904601E-2</v>
+        <v>1.5996298713774299E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>1.19156518871876E-2</v>
+        <v>1.51928271787873E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1.16309520148328E-2</v>
+        <v>1.13314392807146E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>7.1494517655344104E-3</v>
+        <v>7.8685653517347309E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>7.09788608108557E-3</v>
+        <v>7.2099969783826602E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>6.7124006403716701E-3</v>
+        <v>6.6789748004901202E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>6.4065911576809201E-3</v>
+        <v>6.2036730473218702E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>2.14814643101476E-3</v>
+        <v>6.1168979697195196E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>1.9912137324726302E-3</v>
+        <v>5.4734808754212903E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>1.9385285840363899E-3</v>
+        <v>1.9679311267815202E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>1.7775813122427001E-3</v>
+        <v>1.92531020473841E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>1.27531726296971E-3</v>
+        <v>1.9163582036557101E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>8.2286765284766397E-4</v>
+        <v>1.70095983715989E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.21140794416378E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7.9879077309349998E-4</v>
       </c>
     </row>
   </sheetData>
